--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" r:id="rId1"/>
-    <sheet name="Temp" sheetId="2" r:id="rId2"/>
+    <sheet name="Test" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Test Case</t>
   </si>
@@ -39,18 +39,12 @@
     <t>Customer Type</t>
   </si>
   <si>
-    <t>Custome Name</t>
-  </si>
-  <si>
     <t>Jursitic</t>
   </si>
   <si>
     <t>Individual</t>
   </si>
   <si>
-    <t>Name001</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -79,6 +73,42 @@
   </si>
   <si>
     <t>002E</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Contact Last Name</t>
+  </si>
+  <si>
+    <t>Pre Screen Result</t>
+  </si>
+  <si>
+    <t>Last Name 001</t>
+  </si>
+  <si>
+    <t>Last Name 002</t>
+  </si>
+  <si>
+    <t>Name 001</t>
+  </si>
+  <si>
+    <t>Name 002</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Opportunity Type</t>
+  </si>
+  <si>
+    <t>Non-Credit</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>A&amp;H</t>
   </si>
 </sst>
 </file>
@@ -111,13 +141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,14 +187,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -473,67 +503,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -547,7 +616,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,50 +629,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
